--- a/biology/Zoologie/Antrodiaetus_unicolor/Antrodiaetus_unicolor.xlsx
+++ b/biology/Zoologie/Antrodiaetus_unicolor/Antrodiaetus_unicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrodiaetus unicolor est une espèce d'araignées mygalomorphes de la famille des Antrodiaetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis[1]. Elle se rencontre en Arkansas, en Alabama, en Géorgie, en Caroline du Sud, en Caroline du Nord, au Tennessee, au Kentucky, en Virginie-Occidentale, en Virginie, au Maryland, en Pennsylvanie, au New Jersey, dans l'État de New York, en Ohio, en Indiana et en Illinois[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Arkansas, en Alabama, en Géorgie, en Caroline du Sud, en Caroline du Nord, au Tennessee, au Kentucky, en Virginie-Occidentale, en Virginie, au Maryland, en Pennsylvanie, au New Jersey, dans l'État de New York, en Ohio, en Indiana et en Illinois.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace des mâles mesure de 4,0 à 6,6 mm de long sur de 2,97 à 5,24 mm et la carapace des femelles mesure de 5,4 à 10,7 mm de long sur de 3,88 à 8,06 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace des mâles mesure de 4,0 à 6,6 mm de long sur de 2,97 à 5,24 mm et la carapace des femelles mesure de 5,4 à 10,7 mm de long sur de 3,88 à 8,06 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mygale unicolor par Hentz en 1842. Elle est placée dans le genre Antrodiaetus par Ausserer en 1871[4].
-Mygale gracilis[5], Brachybothrium accentuatum[6], Nidivalvata angustata[7] et Nidivalvata marxii[7] ont été placées en synonymie par Coyle en 1971[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mygale unicolor par Hentz en 1842. Elle est placée dans le genre Antrodiaetus par Ausserer en 1871.
+Mygale gracilis, Brachybothrium accentuatum, Nidivalvata angustata et Nidivalvata marxii ont été placées en synonymie par Coyle en 1971.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hentz, 1842 : « Descriptions and figures of the araneides of the United States. » Boston journal of natural history, vol. 4, p. 54-57 &amp; 223-231 (texte intégral).</t>
         </is>
